--- a/block2_distractors.xlsx
+++ b/block2_distractors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pushkarsingh/Documents/01 University/03 Self Prioritisation Research/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C743CD35-7582-8C4A-BE60-E1EBC3250BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A10BC0-88AE-5E4D-ACCD-047A34C44D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="2500" windowWidth="26440" windowHeight="14260" xr2:uid="{6338A919-38EA-7C41-9B82-4E03ECFD4CB4}"/>
+    <workbookView xWindow="2360" yWindow="2500" windowWidth="26440" windowHeight="14260" xr2:uid="{6338A919-38EA-7C41-9B82-4E03ECFD4CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>distractor_blockTwo</t>
   </si>
@@ -183,36 +183,6 @@
   </si>
   <si>
     <t>Neutral</t>
-  </si>
-  <si>
-    <t>DistAOne/2516.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/2593.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/7034.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/2273.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/2383.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/7052.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/7036.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/2890.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/2580.jpg</t>
-  </si>
-  <si>
-    <t>DistAOne/7050.jpg</t>
   </si>
   <si>
     <t>DistAOne/7040.jpg</t>
@@ -381,9 +351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +391,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6282B4-2629-E244-9201-26DD63B7AB2E}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1075,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1113,7 +1083,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -1121,7 +1091,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
@@ -1129,7 +1099,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -1137,7 +1107,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
@@ -1145,7 +1115,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
@@ -1153,7 +1123,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -1161,7 +1131,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -1169,7 +1139,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
@@ -1177,7 +1147,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -1185,7 +1155,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
@@ -1193,7 +1163,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
@@ -1201,7 +1171,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -1209,7 +1179,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -1217,7 +1187,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -1225,7 +1195,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
@@ -1233,7 +1203,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
@@ -1241,7 +1211,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -1249,7 +1219,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
@@ -1257,7 +1227,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>48</v>
@@ -1265,7 +1235,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>48</v>
@@ -1273,7 +1243,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
@@ -1281,7 +1251,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
@@ -1289,7 +1259,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
@@ -1297,7 +1267,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -1305,7 +1275,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -1313,7 +1283,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -1321,7 +1291,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -1329,7 +1299,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -1337,7 +1307,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -1345,7 +1315,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -1353,7 +1323,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -1361,7 +1331,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -1369,7 +1339,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -1377,89 +1347,9 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>50</v>
-      </c>
-      <c r="B90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" t="s">
         <v>48</v>
       </c>
     </row>

--- a/block2_distractors.xlsx
+++ b/block2_distractors.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pushkarsingh/Documents/01 University/03 Self Prioritisation Research/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A10BC0-88AE-5E4D-ACCD-047A34C44D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0E0D65-5A8F-1749-BAC8-8A65F18B9CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="2500" windowWidth="26440" windowHeight="14260" xr2:uid="{6338A919-38EA-7C41-9B82-4E03ECFD4CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>distractor_blockTwo</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>DistAOne/4561.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rand </t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6282B4-2629-E244-9201-26DD63B7AB2E}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,6 +670,9 @@
       <c r="B1" t="s">
         <v>47</v>
       </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -675,7 +681,10 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <f ca="1">RAND()</f>
+        <v>0.52168170972214256</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -684,7 +693,10 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C66" ca="1" si="0">RAND()</f>
+        <v>0.95130409750626221</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -693,7 +705,10 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10723378656989946</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -702,7 +717,10 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26512542966605646</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -711,7 +729,10 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46301933036601095</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -720,7 +741,10 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98544285003144949</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -729,7 +753,10 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71368000561928624</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -738,7 +765,10 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93660406172923971</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -747,7 +777,10 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80445146594985739</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -756,7 +789,10 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51069246223254228</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -765,7 +801,10 @@
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53635198094427661</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -774,7 +813,10 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31215020184148723</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -783,7 +825,10 @@
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35281992880625423</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -792,7 +837,10 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2582445268051039</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -801,7 +849,10 @@
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5806988891491458E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -810,7 +861,10 @@
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66181520629141133</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -819,7 +873,10 @@
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0716384371196761E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -828,7 +885,10 @@
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89428653541173964</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -837,7 +897,10 @@
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13181555091042296</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -846,7 +909,10 @@
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76179243702386412</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -855,7 +921,10 @@
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.2666666495420844E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -864,7 +933,10 @@
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37912670180372932</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -873,7 +945,10 @@
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69796721728684541</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -882,7 +957,10 @@
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7244841663542001</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -891,7 +969,10 @@
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73327169055519392</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -900,7 +981,10 @@
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4660236785311214E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -909,7 +993,10 @@
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1358235299652297E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -918,7 +1005,10 @@
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32454615565596878</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -927,7 +1017,10 @@
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51804413867188193</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -936,7 +1029,10 @@
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24265700260049916</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -945,7 +1041,10 @@
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7227375528679199E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -954,7 +1053,10 @@
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35279650628133918</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -963,7 +1065,10 @@
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.49944456938392168</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -972,7 +1077,10 @@
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45180787594432903</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
@@ -981,7 +1089,10 @@
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3713583007685809</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -990,7 +1101,10 @@
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39988379238774052</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -999,7 +1113,10 @@
       <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31623684834265364</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -1008,7 +1125,10 @@
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37416146120769622</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -1017,7 +1137,10 @@
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82872642805733432</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1026,7 +1149,10 @@
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38613171468560537</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1035,7 +1161,10 @@
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19661102871489267</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1044,7 +1173,10 @@
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57226595129285962</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1053,7 +1185,10 @@
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1134710767843955</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -1062,7 +1197,10 @@
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78270052457776829</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -1071,7 +1209,10 @@
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33289528116153377</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1080,6 +1221,10 @@
       <c r="B47" t="s">
         <v>48</v>
       </c>
+      <c r="C47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69839474494522391</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1088,269 +1233,405 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42457246193290843</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.9042571154812586E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>80</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38811543288998962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93749613501417783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
       <c r="B52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5985219076501345E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37625676281353682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32516951684433948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90773053140550652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83895408658677151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78192759771209497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
       <c r="B58" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5797796451030095E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72837350556383984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36611450147298918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99700340562412992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99758844029562954</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53902229466552953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64608211371638025</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63042649201352152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63188046966521971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <f t="shared" ref="C67:C81" ca="1" si="1">RAND()</f>
+        <v>0.5581732295473294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41771117389514389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>61</v>
       </c>
       <c r="B69" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58904359172882603</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52486787743923413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51361865877831825</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>58</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48666437853040356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82837008833655468</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>56</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2697759824233118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16526590354391568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>54</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44612283732871971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56370803922773183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>52</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88848234269937987</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3463849555190199E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>50</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8917745305020661E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>49</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.92333453617213035</v>
       </c>
     </row>
   </sheetData>
